--- a/tables/TowerLUTable.xlsx
+++ b/tables/TowerLUTable.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{A762D6DB-3D61-4F62-B9A7-D31E8C9BC5C1}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86E21E48-5DF2-4A4C-BCAA-69F1B6B695C6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12840" windowHeight="3345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25305" windowHeight="10995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TowerLUTable" sheetId="1" r:id="rId1"/>
@@ -384,7 +384,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -565,7 +565,7 @@
         <v>25</v>
       </c>
       <c r="C9" s="1">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="D9" s="1">
         <v>60</v>
